--- a/outputs-r202/train-f__Paludibacteraceae.xlsx
+++ b/outputs-r202/train-f__Paludibacteraceae.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="553">
   <si>
     <t>Row</t>
   </si>
@@ -1358,6 +1359,324 @@
   </si>
   <si>
     <t>GB_GCA_009787075.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000768855.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000768855.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000768855.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000768855.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000768855.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000768855.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000768855.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001653155.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001653155.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001653155.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001653155.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001653155.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900767385.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900767385.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900767385.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900767385.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900767385.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012519885.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002068215.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002068215.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002068215.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012517575.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012517575.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012517575.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012517575.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712605.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712605.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001618385.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002427615.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903899865.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903912795.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000183135.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000183135.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_010501035.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_010501035.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_010501035.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002308815.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002395805.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316005.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002069025.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002069025.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009930305.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009930305.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009930305.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316125.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316125.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316995.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316995.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316995.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004561455.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004561455.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004561455.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769035.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769035.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900771035.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784425.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784425.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769555.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769555.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769555.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002317115.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002317115.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002371265.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002371265.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392915.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782665.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782665.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002315615.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394025.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394025.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394025.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394025.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002362105.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002362105.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002362105.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002396385.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002396385.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002393965.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002393965.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002393965.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002393965.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009929445.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012518275.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012837935.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012837935.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900498215.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557405.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557405.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004557405.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012837685.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012837685.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012837685.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012837685.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012837685.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009781075.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787075.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787075.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787075.1_5.fasta</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1394,11 +1713,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1408,6 +1729,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31937,4 +32260,7635 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W107"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.7109375" customWidth="true"/>
+    <col min="10" max="10" width="15.7109375" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" customWidth="true"/>
+    <col min="12" max="12" width="15.7109375" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" customWidth="true"/>
+    <col min="14" max="14" width="15.7109375" customWidth="true"/>
+    <col min="15" max="15" width="15.7109375" customWidth="true"/>
+    <col min="16" max="16" width="15.7109375" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" customWidth="true"/>
+    <col min="18" max="18" width="15.7109375" customWidth="true"/>
+    <col min="19" max="19" width="15.7109375" customWidth="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true"/>
+    <col min="21" max="21" width="15.7109375" customWidth="true"/>
+    <col min="22" max="22" width="10.28515625" customWidth="true"/>
+    <col min="23" max="23" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2">
+        <v>0.9999914144956108</v>
+      </c>
+      <c r="C2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="D2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="E2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="F2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="G2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="H2">
+        <v>8.5855039896324848e-06</v>
+      </c>
+      <c r="I2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="J2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="K2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="L2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="M2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="N2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="O2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="P2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="Q2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="R2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="S2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="T2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="U2">
+        <v>2.2204450960919897e-14</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3">
+        <v>0.9999747251422989</v>
+      </c>
+      <c r="C3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="E3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="F3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="G3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="H3">
+        <v>2.5274857301330243e-05</v>
+      </c>
+      <c r="I3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="K3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="L3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="M3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="N3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="O3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="P3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="Q3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="R3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="S3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="T3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="U3">
+        <v>2.2204432433869878e-14</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4">
+        <v>0.99998802483248639</v>
+      </c>
+      <c r="C4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="E4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="F4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="G4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="H4">
+        <v>1.1975167113982986e-05</v>
+      </c>
+      <c r="I4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="K4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="L4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="M4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="N4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="O4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="P4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="Q4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="R4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="S4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="T4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="U4">
+        <v>2.2204447197866545e-14</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5">
+        <v>0.99999170747584742</v>
+      </c>
+      <c r="C5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="D5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="F5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="G5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="H5">
+        <v>8.2925237528856996e-06</v>
+      </c>
+      <c r="I5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="J5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="K5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="L5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="M5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="N5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="O5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="P5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="Q5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="R5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="S5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="T5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="U5">
+        <v>2.2204451286177077e-14</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6">
+        <v>0.99997828198586958</v>
+      </c>
+      <c r="C6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="D6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="E6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="F6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="G6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="H6">
+        <v>2.1718013730847799e-05</v>
+      </c>
+      <c r="I6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="J6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="K6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="L6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="M6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="N6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="O6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="P6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="Q6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="R6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="S6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="T6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="U6">
+        <v>2.2204436382211047e-14</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7">
+        <v>0.99999197592779954</v>
+      </c>
+      <c r="C7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="D7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="E7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="F7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="G7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="H7">
+        <v>8.0240718006965899e-06</v>
+      </c>
+      <c r="I7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="K7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="L7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="M7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="N7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="O7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="P7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="Q7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="R7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="S7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="T7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="U7">
+        <v>2.2204451584204243e-14</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8">
+        <v>0.99998683192926097</v>
+      </c>
+      <c r="C8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="D8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="E8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="F8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="G8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="H8">
+        <v>1.3168070339436807e-05</v>
+      </c>
+      <c r="I8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="J8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="K8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="L8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="M8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="N8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="O8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="P8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="Q8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="R8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="S8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="T8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="U8">
+        <v>2.2204445873576331e-14</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="C9">
+        <v>0.9999975128038755</v>
+      </c>
+      <c r="D9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="E9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="F9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="G9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="H9">
+        <v>2.4871957247609806e-06</v>
+      </c>
+      <c r="I9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="J9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="K9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="L9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="M9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="N9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="O9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="P9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="Q9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="R9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="S9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="T9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="U9">
+        <v>2.2204457731180574e-14</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="C10">
+        <v>0.99999987263783741</v>
+      </c>
+      <c r="D10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="E10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="F10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="G10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="H10">
+        <v>1.2736176280328196e-07</v>
+      </c>
+      <c r="I10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="K10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="L10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="M10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="N10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="O10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="P10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="Q10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="R10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="S10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="T10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="U10">
+        <v>2.2204460351102328e-14</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="C11">
+        <v>0.99999755135614354</v>
+      </c>
+      <c r="D11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="E11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="F11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="G11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="H11">
+        <v>2.4486434567083997e-06</v>
+      </c>
+      <c r="I11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="J11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="K11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="L11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="M11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="N11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="O11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="P11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="Q11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="R11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="S11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="T11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="U11">
+        <v>2.2204457773981567e-14</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.99999916632342567</v>
+      </c>
+      <c r="D12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="E12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="F12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="G12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="H12">
+        <v>8.3367617470885522e-07</v>
+      </c>
+      <c r="I12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="K12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="L12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="M12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="N12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="O12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="P12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="Q12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="R12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="S12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="T12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="U12">
+        <v>2.2204459566938033e-14</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.99999969889724283</v>
+      </c>
+      <c r="D13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="E13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="G13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="H13">
+        <v>3.0110235748575052e-07</v>
+      </c>
+      <c r="I13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="J13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="K13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="L13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="M13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="N13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="O13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="P13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="Q13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="R13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="S13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="T13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="U13">
+        <v>2.2204460158211761e-14</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="C14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="D14">
+        <v>0.99999994989839958</v>
+      </c>
+      <c r="E14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="F14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="G14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="H14">
+        <v>5.0101200820793981e-08</v>
+      </c>
+      <c r="I14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="J14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="K14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="L14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="M14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="N14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="O14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="P14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="Q14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="R14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="S14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="T14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="U14">
+        <v>2.220446043687874e-14</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="C15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.99999947595318295</v>
+      </c>
+      <c r="E15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="F15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="G15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="H15">
+        <v>5.2404641737627227e-07</v>
+      </c>
+      <c r="I15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="K15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="L15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="M15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="N15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="O15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="P15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="Q15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="R15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="S15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="T15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="U15">
+        <v>2.2204459910694737e-14</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="C16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="D16">
+        <v>0.99999886209283828</v>
+      </c>
+      <c r="E16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="F16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="G16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="H16">
+        <v>1.1379067620408745e-06</v>
+      </c>
+      <c r="I16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="J16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="K16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="L16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="M16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="N16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="O16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="P16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="Q16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="R16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="S16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="T16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="U16">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="C17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.99999886209283828</v>
+      </c>
+      <c r="E17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="F17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="G17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="H17">
+        <v>1.1379067620408745e-06</v>
+      </c>
+      <c r="I17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="J17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="K17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="L17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="M17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="N17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="O17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="P17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="Q17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="R17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="S17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="T17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="U17">
+        <v>2.2204459229176195e-14</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="C18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.99998274472969151</v>
+      </c>
+      <c r="E18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="F18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="G18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="H18">
+        <v>1.7255269908842425e-05</v>
+      </c>
+      <c r="I18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="K18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="L18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="M18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="N18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="O18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="P18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="Q18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="R18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="S18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="T18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="U18">
+        <v>2.2204441336281283e-14</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="C19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="D19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="E19">
+        <v>0.99670179068052744</v>
+      </c>
+      <c r="F19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="G19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="H19">
+        <v>0.0032982093190730595</v>
+      </c>
+      <c r="I19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="J19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="K19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="L19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="M19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="N19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="O19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="P19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="Q19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="R19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="S19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="T19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="U19">
+        <v>2.2201067928171898e-14</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="C20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="D20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="E20">
+        <v>0.99732009880493266</v>
+      </c>
+      <c r="F20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="G20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="H20">
+        <v>0.002679901194667573</v>
+      </c>
+      <c r="I20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="J20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="K20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="L20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="M20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="N20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="O20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="P20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="Q20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="R20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="S20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="T20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="U20">
+        <v>2.2201508759614432e-14</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="C21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="D21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="E21">
+        <v>0.99241364545366961</v>
+      </c>
+      <c r="F21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="G21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="H21">
+        <v>0.007586354545930719</v>
+      </c>
+      <c r="I21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="J21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="K21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="L21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="M21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="N21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="O21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="P21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="Q21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="R21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="S21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="T21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="U21">
+        <v>2.2201096791604962e-14</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="C22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="D22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="E22">
+        <v>0.99673154054709012</v>
+      </c>
+      <c r="F22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="G22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="H22">
+        <v>0.0032684594525102554</v>
+      </c>
+      <c r="I22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="J22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="K22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="L22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="M22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="N22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="O22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="P22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="Q22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="R22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="S22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="T22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="U22">
+        <v>2.2201065938653392e-14</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B23">
+        <v>0.048377734837577117</v>
+      </c>
+      <c r="C23">
+        <v>0.048377734837577117</v>
+      </c>
+      <c r="D23">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="E23">
+        <v>0.072816553452727376</v>
+      </c>
+      <c r="F23">
+        <v>0.048377734837577117</v>
+      </c>
+      <c r="G23">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="H23">
+        <v>0.056384219470884248</v>
+      </c>
+      <c r="I23">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="J23">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="K23">
+        <v>0.048377734837577138</v>
+      </c>
+      <c r="L23">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="M23">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="N23">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="O23">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="P23">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="Q23">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="R23">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="S23">
+        <v>0.048377734837577166</v>
+      </c>
+      <c r="T23">
+        <v>0.048377734837577166</v>
+      </c>
+      <c r="U23">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B24">
+        <v>0.047893138452822857</v>
+      </c>
+      <c r="C24">
+        <v>0.047893138452822857</v>
+      </c>
+      <c r="D24">
+        <v>0.047893138452822864</v>
+      </c>
+      <c r="E24">
+        <v>0.072431267742953095</v>
+      </c>
+      <c r="F24">
+        <v>0.04789313845282285</v>
+      </c>
+      <c r="G24">
+        <v>0.04789313845282285</v>
+      </c>
+      <c r="H24">
+        <v>0.065492240106235305</v>
+      </c>
+      <c r="I24">
+        <v>0.04789313845282285</v>
+      </c>
+      <c r="J24">
+        <v>0.04789313845282285</v>
+      </c>
+      <c r="K24">
+        <v>0.047893138452822864</v>
+      </c>
+      <c r="L24">
+        <v>0.047893138452822878</v>
+      </c>
+      <c r="M24">
+        <v>0.047893138452822878</v>
+      </c>
+      <c r="N24">
+        <v>0.047893138452822878</v>
+      </c>
+      <c r="O24">
+        <v>0.047893138452822878</v>
+      </c>
+      <c r="P24">
+        <v>0.047893138452822878</v>
+      </c>
+      <c r="Q24">
+        <v>0.047893138452822878</v>
+      </c>
+      <c r="R24">
+        <v>0.047893138452822878</v>
+      </c>
+      <c r="S24">
+        <v>0.047893138452822823</v>
+      </c>
+      <c r="T24">
+        <v>0.047893138452822823</v>
+      </c>
+      <c r="U24">
+        <v>0.047893138452822823</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="C25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="D25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="E25">
+        <v>0.99864573752028551</v>
+      </c>
+      <c r="F25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="G25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="H25">
+        <v>0.0013542624793149206</v>
+      </c>
+      <c r="I25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="J25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="K25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="L25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="M25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="N25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="O25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="P25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="Q25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="R25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="S25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="T25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="U25">
+        <v>2.2202962975751835e-14</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="C26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="D26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="E26">
+        <v>0.98393667965739062</v>
+      </c>
+      <c r="F26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="G26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="H26">
+        <v>0.016063320342209701</v>
+      </c>
+      <c r="I26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="J26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="K26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="L26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="M26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="N26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="O26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="P26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="Q26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="R26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="S26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="T26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="U26">
+        <v>2.220115736108693e-14</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B27">
+        <v>0.048377734837577117</v>
+      </c>
+      <c r="C27">
+        <v>0.048377734837577117</v>
+      </c>
+      <c r="D27">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="E27">
+        <v>0.072816553452727376</v>
+      </c>
+      <c r="F27">
+        <v>0.048377734837577117</v>
+      </c>
+      <c r="G27">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="H27">
+        <v>0.056384219470884248</v>
+      </c>
+      <c r="I27">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="J27">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="K27">
+        <v>0.048377734837577138</v>
+      </c>
+      <c r="L27">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="M27">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="N27">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="O27">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="P27">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="Q27">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="R27">
+        <v>0.048377734837577145</v>
+      </c>
+      <c r="S27">
+        <v>0.048377734837577166</v>
+      </c>
+      <c r="T27">
+        <v>0.048377734837577166</v>
+      </c>
+      <c r="U27">
+        <v>0.048377734837577152</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="C28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="D28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="E28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="F28">
+        <v>0.99999686887079731</v>
+      </c>
+      <c r="G28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="H28">
+        <v>3.1311288030167665e-06</v>
+      </c>
+      <c r="I28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="J28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="K28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="L28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="M28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="N28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="O28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="P28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="Q28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="R28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="S28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="T28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="U28">
+        <v>2.2204457016283119e-14</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="D29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="E29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="F29">
+        <v>0.99393856969679839</v>
+      </c>
+      <c r="G29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="H29">
+        <v>0.006061430302802125</v>
+      </c>
+      <c r="I29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="J29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="K29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="L29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="M29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="N29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="O29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="P29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="Q29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="R29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="S29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="T29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="U29">
+        <v>2.2201085893081368e-14</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="C30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="D30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="E30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="F30">
+        <v>0.99998011860080049</v>
+      </c>
+      <c r="G30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="H30">
+        <v>1.988139879985304e-05</v>
+      </c>
+      <c r="I30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="J30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="K30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="L30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="M30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="N30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="O30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="P30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="Q30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="R30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="S30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="T30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="U30">
+        <v>2.220443842101253e-14</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="C31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="D31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="E31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="F31">
+        <v>0.99997924078052169</v>
+      </c>
+      <c r="G31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="H31">
+        <v>2.0759219078575724e-05</v>
+      </c>
+      <c r="I31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="K31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="L31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="M31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="N31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="O31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="P31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="Q31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="R31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="S31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="T31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="U31">
+        <v>2.2204437446553309e-14</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="C32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="D32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="E32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="F32">
+        <v>0.9938057859915771</v>
+      </c>
+      <c r="G32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="H32">
+        <v>0.0061942140080232756</v>
+      </c>
+      <c r="I32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="J32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="K32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="L32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="M32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="N32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="O32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="P32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="Q32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="R32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="S32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="T32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="U32">
+        <v>2.2201087171208397e-14</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="C33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="E33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="F33">
+        <v>0.99941815186473926</v>
+      </c>
+      <c r="G33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="H33">
+        <v>0.00058184813486106279</v>
+      </c>
+      <c r="I33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="J33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="K33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="L33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="M33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="N33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="O33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="P33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="Q33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="R33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="S33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="T33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="U33">
+        <v>2.2203815622078873e-14</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="F34">
+        <v>0.99931563630355436</v>
+      </c>
+      <c r="G34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="H34">
+        <v>0.00068436369604606465</v>
+      </c>
+      <c r="I34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="J34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="K34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="L34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="M34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="N34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="O34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="P34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="Q34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="R34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="S34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="T34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="U34">
+        <v>2.2203702232809904e-14</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="C35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="D35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="E35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="F35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="G35">
+        <v>0.99957634456463973</v>
+      </c>
+      <c r="H35">
+        <v>0.00042365543496049015</v>
+      </c>
+      <c r="I35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="J35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="K35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="L35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="M35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="N35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="O35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="P35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="Q35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="R35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="S35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="T35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="U35">
+        <v>2.2203990729386237e-14</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="C36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="D36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="E36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="F36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="G36">
+        <v>0.99958974092315755</v>
+      </c>
+      <c r="H36">
+        <v>0.00041025907644277345</v>
+      </c>
+      <c r="I36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="J36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="K36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="L36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="M36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="N36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="O36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="P36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="Q36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="R36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="S36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="T36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="U36">
+        <v>2.2204005565678793e-14</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="C37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="D37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="E37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="F37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="G37">
+        <v>0.99926911644953775</v>
+      </c>
+      <c r="H37">
+        <v>0.00073088355006260385</v>
+      </c>
+      <c r="I37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="J37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="K37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="L37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="M37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="N37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="O37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="P37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="Q37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="R37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="S37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="T37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="U37">
+        <v>2.2203650801390366e-14</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B38">
+        <v>0.0007682563171804485</v>
+      </c>
+      <c r="C38">
+        <v>0.0007682563171804485</v>
+      </c>
+      <c r="D38">
+        <v>0.0007682563171804485</v>
+      </c>
+      <c r="E38">
+        <v>0.00076825631718044633</v>
+      </c>
+      <c r="F38">
+        <v>0.00076825631718044633</v>
+      </c>
+      <c r="G38">
+        <v>0.00076825631718045132</v>
+      </c>
+      <c r="H38">
+        <v>0.9854031299735716</v>
+      </c>
+      <c r="I38">
+        <v>0.00076825631718045132</v>
+      </c>
+      <c r="J38">
+        <v>0.00076825631718045132</v>
+      </c>
+      <c r="K38">
+        <v>0.00076825631718045067</v>
+      </c>
+      <c r="L38">
+        <v>0.00076825631718045067</v>
+      </c>
+      <c r="M38">
+        <v>0.00076825631718045067</v>
+      </c>
+      <c r="N38">
+        <v>0.00076825631718045067</v>
+      </c>
+      <c r="O38">
+        <v>0.00076825631718045067</v>
+      </c>
+      <c r="P38">
+        <v>0.00076825631718045067</v>
+      </c>
+      <c r="Q38">
+        <v>0.00076825631718045067</v>
+      </c>
+      <c r="R38">
+        <v>0.00076825631718045067</v>
+      </c>
+      <c r="S38">
+        <v>0.00076825631718044525</v>
+      </c>
+      <c r="T38">
+        <v>0.00076825631718044536</v>
+      </c>
+      <c r="U38">
+        <v>0.00076825631718044514</v>
+      </c>
+      <c r="V38">
+        <v>7</v>
+      </c>
+      <c r="W38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B39">
+        <v>0.00055812145197170341</v>
+      </c>
+      <c r="C39">
+        <v>0.00055812145197170341</v>
+      </c>
+      <c r="D39">
+        <v>0.00055812145197170341</v>
+      </c>
+      <c r="E39">
+        <v>0.00055812145197170547</v>
+      </c>
+      <c r="F39">
+        <v>0.00055812145197170547</v>
+      </c>
+      <c r="G39">
+        <v>0.00055812145197170601</v>
+      </c>
+      <c r="H39">
+        <v>0.98939569241253711</v>
+      </c>
+      <c r="I39">
+        <v>0.00055812145197170601</v>
+      </c>
+      <c r="J39">
+        <v>0.00055812145197170601</v>
+      </c>
+      <c r="K39">
+        <v>0.00055812145197170644</v>
+      </c>
+      <c r="L39">
+        <v>0.00055812145197170644</v>
+      </c>
+      <c r="M39">
+        <v>0.00055812145197170644</v>
+      </c>
+      <c r="N39">
+        <v>0.00055812145197170644</v>
+      </c>
+      <c r="O39">
+        <v>0.00055812145197170644</v>
+      </c>
+      <c r="P39">
+        <v>0.00055812145197170644</v>
+      </c>
+      <c r="Q39">
+        <v>0.00055812145197170644</v>
+      </c>
+      <c r="R39">
+        <v>0.00055812145197170644</v>
+      </c>
+      <c r="S39">
+        <v>0.00055812145197170558</v>
+      </c>
+      <c r="T39">
+        <v>0.00055812145197170742</v>
+      </c>
+      <c r="U39">
+        <v>0.00055812145197170742</v>
+      </c>
+      <c r="V39">
+        <v>7</v>
+      </c>
+      <c r="W39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B40">
+        <v>0.00053184029319499303</v>
+      </c>
+      <c r="C40">
+        <v>0.00053184029319499303</v>
+      </c>
+      <c r="D40">
+        <v>0.00053184029319499303</v>
+      </c>
+      <c r="E40">
+        <v>0.00053184029319499292</v>
+      </c>
+      <c r="F40">
+        <v>0.00053184029319499292</v>
+      </c>
+      <c r="G40">
+        <v>0.00053184029319499574</v>
+      </c>
+      <c r="H40">
+        <v>0.98989503442929472</v>
+      </c>
+      <c r="I40">
+        <v>0.00053184029319499574</v>
+      </c>
+      <c r="J40">
+        <v>0.00053184029319499574</v>
+      </c>
+      <c r="K40">
+        <v>0.00053184029319499498</v>
+      </c>
+      <c r="L40">
+        <v>0.00053184029319499498</v>
+      </c>
+      <c r="M40">
+        <v>0.00053184029319499498</v>
+      </c>
+      <c r="N40">
+        <v>0.00053184029319499498</v>
+      </c>
+      <c r="O40">
+        <v>0.00053184029319499498</v>
+      </c>
+      <c r="P40">
+        <v>0.00053184029319499498</v>
+      </c>
+      <c r="Q40">
+        <v>0.00053184029319499498</v>
+      </c>
+      <c r="R40">
+        <v>0.00053184029319499498</v>
+      </c>
+      <c r="S40">
+        <v>0.00053184029319499639</v>
+      </c>
+      <c r="T40">
+        <v>0.00053184029319499899</v>
+      </c>
+      <c r="U40">
+        <v>0.00053184029319499747</v>
+      </c>
+      <c r="V40">
+        <v>7</v>
+      </c>
+      <c r="W40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="C41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="D41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="E41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="F41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="G41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="H41">
+        <v>0.96690278547252972</v>
+      </c>
+      <c r="I41">
+        <v>0.033097214527070706</v>
+      </c>
+      <c r="J41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="K41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="L41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="M41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="N41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="O41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="P41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="Q41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="R41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="S41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="T41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="U41">
+        <v>2.2201281256142665e-14</v>
+      </c>
+      <c r="V41">
+        <v>7</v>
+      </c>
+      <c r="W41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="C42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="F42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="G42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="H42">
+        <v>0.96044041480262765</v>
+      </c>
+      <c r="I42">
+        <v>0.039559585196972682</v>
+      </c>
+      <c r="J42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="K42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="L42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="M42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="N42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="O42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="P42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="Q42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="R42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="S42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="T42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="U42">
+        <v>2.2201330119830177e-14</v>
+      </c>
+      <c r="V42">
+        <v>7</v>
+      </c>
+      <c r="W42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="C43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="E43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="F43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="G43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="H43">
+        <v>0.014724348002780508</v>
+      </c>
+      <c r="I43">
+        <v>0.98527565199681999</v>
+      </c>
+      <c r="J43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="K43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="L43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="M43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="N43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="O43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="P43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="Q43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="R43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="S43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="T43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="U43">
+        <v>2.2201147364938535e-14</v>
+      </c>
+      <c r="V43">
+        <v>8</v>
+      </c>
+      <c r="W43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="F44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="G44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="H44">
+        <v>0.0069272780427654147</v>
+      </c>
+      <c r="I44">
+        <v>0.99307272195683505</v>
+      </c>
+      <c r="J44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="K44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="L44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="M44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="N44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="O44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="P44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="Q44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="R44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="S44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="T44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="U44">
+        <v>2.2201091846863413e-14</v>
+      </c>
+      <c r="V44">
+        <v>8</v>
+      </c>
+      <c r="W44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="C45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="D45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="E45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="F45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="G45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="H45">
+        <v>0.0081936783372699197</v>
+      </c>
+      <c r="I45">
+        <v>0.99180632166233051</v>
+      </c>
+      <c r="J45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="K45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="L45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="M45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="N45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="O45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="P45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="Q45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="R45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="S45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="T45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="U45">
+        <v>2.220110272869739e-14</v>
+      </c>
+      <c r="V45">
+        <v>8</v>
+      </c>
+      <c r="W45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="C46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="E46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="F46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="G46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="H46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="I46">
+        <v>0.4999999999998001</v>
+      </c>
+      <c r="J46">
+        <v>0.4999999999998001</v>
+      </c>
+      <c r="K46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="L46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="M46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="N46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="O46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="P46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="Q46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="R46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="S46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="T46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="U46">
+        <v>2.2204460492498448e-14</v>
+      </c>
+      <c r="V46">
+        <v>8</v>
+      </c>
+      <c r="W46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="E47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="F47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="G47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="H47">
+        <v>0.00034231190472678035</v>
+      </c>
+      <c r="I47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="J47">
+        <v>0.99965768809487354</v>
+      </c>
+      <c r="K47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="L47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="M47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="N47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="O47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="P47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="Q47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="R47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="S47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="T47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="U47">
+        <v>2.2204080834418774e-14</v>
+      </c>
+      <c r="V47">
+        <v>9</v>
+      </c>
+      <c r="W47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>9</v>
+      </c>
+      <c r="W48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="F49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="G49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="H49">
+        <v>0.00065342261412244904</v>
+      </c>
+      <c r="I49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="J49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="K49">
+        <v>0.99934657738547783</v>
+      </c>
+      <c r="L49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="M49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="N49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="O49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="P49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="Q49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="R49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="S49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="T49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="U49">
+        <v>2.220373644851243e-14</v>
+      </c>
+      <c r="V49">
+        <v>10</v>
+      </c>
+      <c r="W49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="C50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="D50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="E50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="F50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="G50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="H50">
+        <v>0.00044172346970420038</v>
+      </c>
+      <c r="I50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="J50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="K50">
+        <v>0.99955827652989604</v>
+      </c>
+      <c r="L50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="M50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="N50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="O50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="P50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="Q50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="R50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="S50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="T50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="U50">
+        <v>2.2203970721138154e-14</v>
+      </c>
+      <c r="V50">
+        <v>10</v>
+      </c>
+      <c r="W50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="C51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="D51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="E51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="F51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="G51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="H51">
+        <v>0.0035783699237478153</v>
+      </c>
+      <c r="I51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="J51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="K51">
+        <v>0.99642163007585249</v>
+      </c>
+      <c r="L51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="M51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="N51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="O51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="P51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="Q51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="R51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="S51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="T51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="U51">
+        <v>2.2201069825058769e-14</v>
+      </c>
+      <c r="V51">
+        <v>10</v>
+      </c>
+      <c r="W51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="C52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="F52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="G52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="H52">
+        <v>0.0018711086938312874</v>
+      </c>
+      <c r="I52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="J52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="K52">
+        <v>0.99812889130576909</v>
+      </c>
+      <c r="L52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="M52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="N52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="O52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="P52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="Q52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="R52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="S52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="T52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="U52">
+        <v>2.2202394628916533e-14</v>
+      </c>
+      <c r="V52">
+        <v>10</v>
+      </c>
+      <c r="W52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="C53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="D53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="E53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="F53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="G53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="H53">
+        <v>0.004767709859851187</v>
+      </c>
+      <c r="I53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="J53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="K53">
+        <v>0.99523229013974912</v>
+      </c>
+      <c r="L53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="M53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="N53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="O53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="P53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="Q53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="R53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="S53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="T53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="U53">
+        <v>2.2201077147800914e-14</v>
+      </c>
+      <c r="V53">
+        <v>10</v>
+      </c>
+      <c r="W53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="C54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="D54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="E54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="F54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="G54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="H54">
+        <v>2.8795538011508709e-09</v>
+      </c>
+      <c r="I54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="J54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="K54">
+        <v>0.9999999971200465</v>
+      </c>
+      <c r="L54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="M54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="N54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="O54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="P54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="Q54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="R54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="S54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="T54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="U54">
+        <v>2.2204460489305287e-14</v>
+      </c>
+      <c r="V54">
+        <v>10</v>
+      </c>
+      <c r="W54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="C55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="E55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="F55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="G55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="H55">
+        <v>2.1024035317254003e-10</v>
+      </c>
+      <c r="I55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="J55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="K55">
+        <v>0.99999999978935994</v>
+      </c>
+      <c r="L55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="M55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="N55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="O55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="P55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="Q55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="R55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="S55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="T55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="U55">
+        <v>2.220446049226882e-14</v>
+      </c>
+      <c r="V55">
+        <v>10</v>
+      </c>
+      <c r="W55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="C56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="D56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="E56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="F56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="G56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="H56">
+        <v>1.1371263703945969e-07</v>
+      </c>
+      <c r="I56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="J56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="K56">
+        <v>0.99999988628696335</v>
+      </c>
+      <c r="L56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="M56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="N56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="O56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="P56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="Q56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="R56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="S56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="T56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="U56">
+        <v>2.2204460366255889e-14</v>
+      </c>
+      <c r="V56">
+        <v>10</v>
+      </c>
+      <c r="W56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="C57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="D57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="E57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="F57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="G57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="H57">
+        <v>3.5368533186790833e-08</v>
+      </c>
+      <c r="I57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="J57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="K57">
+        <v>0.99999996463106711</v>
+      </c>
+      <c r="L57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="M57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="N57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="O57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="P57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="Q57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="R57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="S57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="T57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="U57">
+        <v>2.2204460453235282e-14</v>
+      </c>
+      <c r="V57">
+        <v>10</v>
+      </c>
+      <c r="W57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="C58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="D58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="E58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="F58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="G58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="H58">
+        <v>1.9043136353142883e-08</v>
+      </c>
+      <c r="I58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="J58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="K58">
+        <v>0.99999998095646392</v>
+      </c>
+      <c r="L58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="M58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="N58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="O58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="P58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="Q58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="R58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="S58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="T58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="U58">
+        <v>2.2204460471360109e-14</v>
+      </c>
+      <c r="V58">
+        <v>10</v>
+      </c>
+      <c r="W58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="C59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="D59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="E59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="F59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="G59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="H59">
+        <v>1.5000068685623365e-06</v>
+      </c>
+      <c r="I59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="J59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="K59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="L59">
+        <v>0.99999849999273172</v>
+      </c>
+      <c r="M59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="N59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="O59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="P59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="Q59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="R59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="S59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="T59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="U59">
+        <v>2.2204458827167456e-14</v>
+      </c>
+      <c r="V59">
+        <v>11</v>
+      </c>
+      <c r="W59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B60">
+        <v>0.047305071574788797</v>
+      </c>
+      <c r="C60">
+        <v>0.047305071574788797</v>
+      </c>
+      <c r="D60">
+        <v>0.04730507157478879</v>
+      </c>
+      <c r="E60">
+        <v>0.047305071574788797</v>
+      </c>
+      <c r="F60">
+        <v>0.047305071574788797</v>
+      </c>
+      <c r="G60">
+        <v>0.047305071574788936</v>
+      </c>
+      <c r="H60">
+        <v>0.047311901104147291</v>
+      </c>
+      <c r="I60">
+        <v>0.047305071574788797</v>
+      </c>
+      <c r="J60">
+        <v>0.047305071574788797</v>
+      </c>
+      <c r="K60">
+        <v>0.047305071574788769</v>
+      </c>
+      <c r="L60">
+        <v>0.10119681054965447</v>
+      </c>
+      <c r="M60">
+        <v>0.047305071574788769</v>
+      </c>
+      <c r="N60">
+        <v>0.047305071574788818</v>
+      </c>
+      <c r="O60">
+        <v>0.047305071574788818</v>
+      </c>
+      <c r="P60">
+        <v>0.047305071574788818</v>
+      </c>
+      <c r="Q60">
+        <v>0.047305071574788818</v>
+      </c>
+      <c r="R60">
+        <v>0.047305071574788818</v>
+      </c>
+      <c r="S60">
+        <v>0.047305071574788804</v>
+      </c>
+      <c r="T60">
+        <v>0.047305071574788804</v>
+      </c>
+      <c r="U60">
+        <v>0.047305071574788804</v>
+      </c>
+      <c r="V60">
+        <v>11</v>
+      </c>
+      <c r="W60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="C61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="D61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="E61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="F61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="G61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="H61">
+        <v>3.1333699221891028e-07</v>
+      </c>
+      <c r="I61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="J61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="K61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="L61">
+        <v>0.99999968666260808</v>
+      </c>
+      <c r="M61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="N61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="O61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="P61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="Q61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="R61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="S61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="T61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="U61">
+        <v>2.2204460144628617e-14</v>
+      </c>
+      <c r="V61">
+        <v>11</v>
+      </c>
+      <c r="W61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="C62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="D62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="E62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="F62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="G62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="H62">
+        <v>2.566761631641616e-07</v>
+      </c>
+      <c r="I62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="J62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="K62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="L62">
+        <v>0.99999974332343711</v>
+      </c>
+      <c r="M62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="N62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="O62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="P62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="Q62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="R62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="S62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="T62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="U62">
+        <v>2.2204460207534667e-14</v>
+      </c>
+      <c r="V62">
+        <v>11</v>
+      </c>
+      <c r="W62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="C63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="D63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="E63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="F63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="G63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="H63">
+        <v>8.0213596634312567e-07</v>
+      </c>
+      <c r="I63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="J63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="K63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="L63">
+        <v>0.99999919786363389</v>
+      </c>
+      <c r="M63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="N63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="O63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="P63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="Q63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="R63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="S63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="T63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="U63">
+        <v>2.220445960195453e-14</v>
+      </c>
+      <c r="V63">
+        <v>11</v>
+      </c>
+      <c r="W63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="C64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="D64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="E64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="F64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="G64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="H64">
+        <v>1.1539361027787114e-11</v>
+      </c>
+      <c r="I64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="J64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="K64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="L64">
+        <v>0.99999999998806099</v>
+      </c>
+      <c r="M64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="N64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="O64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="P64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="Q64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="R64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="S64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="T64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="U64">
+        <v>2.220446049248943e-14</v>
+      </c>
+      <c r="V64">
+        <v>11</v>
+      </c>
+      <c r="W64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="C65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="D65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="E65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="F65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="G65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="H65">
+        <v>0.00014750173802749334</v>
+      </c>
+      <c r="I65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="J65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="K65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="L65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="M65">
+        <v>0.99985249826157285</v>
+      </c>
+      <c r="N65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="O65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="P65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="Q65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="R65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="S65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="T65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="U65">
+        <v>2.2204296804065725e-14</v>
+      </c>
+      <c r="V65">
+        <v>12</v>
+      </c>
+      <c r="W65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="C66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="D66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="E66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="F66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="G66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="H66">
+        <v>0.00018648727100208364</v>
+      </c>
+      <c r="I66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="J66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="K66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="L66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="M66">
+        <v>0.9998135127285982</v>
+      </c>
+      <c r="N66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="O66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="P66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="Q66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="R66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="S66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="T66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="U66">
+        <v>2.2204253564152836e-14</v>
+      </c>
+      <c r="V66">
+        <v>12</v>
+      </c>
+      <c r="W66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="C67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="D67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="E67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="F67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="G67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="H67">
+        <v>0.00023622287429734957</v>
+      </c>
+      <c r="I67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="J67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="K67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="L67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="M67">
+        <v>0.99976377712530307</v>
+      </c>
+      <c r="N67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="O67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="P67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="Q67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="R67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="S67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="T67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="U67">
+        <v>2.22041984155229e-14</v>
+      </c>
+      <c r="V67">
+        <v>12</v>
+      </c>
+      <c r="W67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="C68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="D68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="E68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="F68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="G68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="H68">
+        <v>0.00028363633446049341</v>
+      </c>
+      <c r="I68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="J68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="K68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="L68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="M68">
+        <v>0.99971636366513972</v>
+      </c>
+      <c r="N68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="O68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="P68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="Q68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="R68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="S68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="T68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="U68">
+        <v>2.2204145856881498e-14</v>
+      </c>
+      <c r="V68">
+        <v>12</v>
+      </c>
+      <c r="W68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="C69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="D69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="E69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="F69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="G69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="H69">
+        <v>7.7218866085091602e-05</v>
+      </c>
+      <c r="I69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="J69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="K69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="L69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="M69">
+        <v>0.99992278113351529</v>
+      </c>
+      <c r="N69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="O69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="P69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="Q69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="R69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="S69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="T69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="U69">
+        <v>2.2204374781904649e-14</v>
+      </c>
+      <c r="V69">
+        <v>12</v>
+      </c>
+      <c r="W69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="C70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="D70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="E70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="F70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="G70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="H70">
+        <v>6.6438688586534602e-07</v>
+      </c>
+      <c r="I70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="J70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="K70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="L70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="M70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="N70">
+        <v>0.99999933561271437</v>
+      </c>
+      <c r="O70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="P70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="Q70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="R70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="S70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="T70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="U70">
+        <v>2.2204459754886062e-14</v>
+      </c>
+      <c r="V70">
+        <v>13</v>
+      </c>
+      <c r="W70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="C71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="D71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="E71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="F71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="G71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="H71">
+        <v>1.5110267328142789e-07</v>
+      </c>
+      <c r="I71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="J71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="K71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="L71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="M71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="N71">
+        <v>0.99999984889692706</v>
+      </c>
+      <c r="O71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="P71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="Q71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="R71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="S71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="T71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="U71">
+        <v>2.2204460324744646e-14</v>
+      </c>
+      <c r="V71">
+        <v>13</v>
+      </c>
+      <c r="W71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="C72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="D72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="E72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="F72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="G72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="H72">
+        <v>8.9123703808815054e-07</v>
+      </c>
+      <c r="I72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="J72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="K72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="L72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="M72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="N72">
+        <v>0.99999910876256237</v>
+      </c>
+      <c r="O72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="P72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="Q72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="R72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="S72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="T72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="U72">
+        <v>2.2204459503032963e-14</v>
+      </c>
+      <c r="V72">
+        <v>13</v>
+      </c>
+      <c r="W72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="C73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="D73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="E73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="F73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="G73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="H73">
+        <v>7.9856651738195802e-07</v>
+      </c>
+      <c r="I73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="J73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="K73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="L73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="M73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="N73">
+        <v>0.99999920143308285</v>
+      </c>
+      <c r="O73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="P73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="Q73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="R73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="S73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="T73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="U73">
+        <v>2.2204459605917392e-14</v>
+      </c>
+      <c r="V73">
+        <v>13</v>
+      </c>
+      <c r="W73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="C74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="D74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="E74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="F74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="G74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="H74">
+        <v>1.2354359879894654e-06</v>
+      </c>
+      <c r="I74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="J74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="K74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="L74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="M74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="N74">
+        <v>0.99999876456361236</v>
+      </c>
+      <c r="O74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="P74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="Q74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="R74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="S74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="T74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="U74">
+        <v>2.2204459120897769e-14</v>
+      </c>
+      <c r="V74">
+        <v>13</v>
+      </c>
+      <c r="W74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="C75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="D75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="E75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="F75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="G75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="H75">
+        <v>2.6406343955479417e-07</v>
+      </c>
+      <c r="I75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="J75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="K75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="L75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="M75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="N75">
+        <v>0.99999973593616065</v>
+      </c>
+      <c r="O75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="P75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="Q75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="R75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="S75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="T75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="U75">
+        <v>2.2204460199333155e-14</v>
+      </c>
+      <c r="V75">
+        <v>13</v>
+      </c>
+      <c r="W75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="C76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="D76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="E76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="F76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="G76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="H76">
+        <v>4.8850429687300613e-07</v>
+      </c>
+      <c r="I76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="J76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="K76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="L76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="M76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="N76">
+        <v>0.99999951149530342</v>
+      </c>
+      <c r="O76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="P76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="Q76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="R76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="S76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="T76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="U76">
+        <v>2.2204459950154304e-14</v>
+      </c>
+      <c r="V76">
+        <v>13</v>
+      </c>
+      <c r="W76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="C77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="D77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="E77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="F77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="G77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="H77">
+        <v>0.00035558788337850802</v>
+      </c>
+      <c r="I77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="J77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="K77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="L77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="M77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="N77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="O77">
+        <v>0.99964441211622179</v>
+      </c>
+      <c r="P77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="Q77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="R77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="S77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="T77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="U77">
+        <v>2.2204066125521347e-14</v>
+      </c>
+      <c r="V77">
+        <v>14</v>
+      </c>
+      <c r="W77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="C78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="D78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="E78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="F78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="G78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="H78">
+        <v>1.6772970427200744e-08</v>
+      </c>
+      <c r="I78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="J78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="K78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="L78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="M78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="N78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="O78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="P78">
+        <v>0.99999998322662997</v>
+      </c>
+      <c r="Q78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="R78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="S78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="T78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="U78">
+        <v>2.2204460473880501e-14</v>
+      </c>
+      <c r="V78">
+        <v>15</v>
+      </c>
+      <c r="W78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="C79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="D79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="E79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="F79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="G79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="H79">
+        <v>3.4793158241110532e-08</v>
+      </c>
+      <c r="I79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="J79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="K79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="L79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="M79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="N79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="O79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="P79">
+        <v>0.99999996520644219</v>
+      </c>
+      <c r="Q79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="R79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="S79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="T79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="U79">
+        <v>2.2204460453874076e-14</v>
+      </c>
+      <c r="V79">
+        <v>15</v>
+      </c>
+      <c r="W79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="C80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="D80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="E80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="F80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="G80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="H80">
+        <v>4.3476251228343316e-08</v>
+      </c>
+      <c r="I80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="J80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="K80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="L80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="M80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="N80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="O80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="P80">
+        <v>0.99999995652334916</v>
+      </c>
+      <c r="Q80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="R80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="S80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="T80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="U80">
+        <v>2.2204460444233906e-14</v>
+      </c>
+      <c r="V80">
+        <v>15</v>
+      </c>
+      <c r="W80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="C81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="D81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="E81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="F81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="G81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="H81">
+        <v>4.2716488564778547e-08</v>
+      </c>
+      <c r="I81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="J81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="K81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="L81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="M81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="N81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="O81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="P81">
+        <v>0.99999995728311186</v>
+      </c>
+      <c r="Q81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="R81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="S81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="T81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="U81">
+        <v>2.2204460445077419e-14</v>
+      </c>
+      <c r="V81">
+        <v>15</v>
+      </c>
+      <c r="W81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="C82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="D82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="E82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="F82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="G82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="H82">
+        <v>0.0029108102923071691</v>
+      </c>
+      <c r="I82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="J82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="K82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="L82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="M82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="N82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="O82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="P82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="Q82">
+        <v>0.9970891897072931</v>
+      </c>
+      <c r="R82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="S82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="T82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="U82">
+        <v>2.2201256631943582e-14</v>
+      </c>
+      <c r="V82">
+        <v>16</v>
+      </c>
+      <c r="W82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="C83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="D83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="E83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="F83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="G83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="H83">
+        <v>0.00083123372860043889</v>
+      </c>
+      <c r="I83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="J83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="K83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="L83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="M83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="N83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="O83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="P83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="Q83">
+        <v>0.99916876627099982</v>
+      </c>
+      <c r="R83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="S83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="T83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="U83">
+        <v>2.2203539904584301e-14</v>
+      </c>
+      <c r="V83">
+        <v>16</v>
+      </c>
+      <c r="W83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="C84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="D84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="E84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="F84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="G84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="H84">
+        <v>1.6786893344268767e-05</v>
+      </c>
+      <c r="I84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="J84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="K84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="L84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="M84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="N84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="O84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="P84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="Q84">
+        <v>0.99998321310625593</v>
+      </c>
+      <c r="R84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="S84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="T84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="U84">
+        <v>2.2204441856231404e-14</v>
+      </c>
+      <c r="V84">
+        <v>16</v>
+      </c>
+      <c r="W84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="C85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="D85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="E85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="F85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="G85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="H85">
+        <v>0.00046006741730065701</v>
+      </c>
+      <c r="I85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="J85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="K85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="L85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="M85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="N85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="O85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="P85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="Q85">
+        <v>0.99953993258229967</v>
+      </c>
+      <c r="R85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="S85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="T85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="U85">
+        <v>2.2203950409539882e-14</v>
+      </c>
+      <c r="V85">
+        <v>16</v>
+      </c>
+      <c r="W85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="C86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="D86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="E86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="F86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="G86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="H86">
+        <v>0.001450014674242412</v>
+      </c>
+      <c r="I86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="J86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="K86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="L86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="M86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="N86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="O86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="P86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="Q86">
+        <v>0.99854998532535799</v>
+      </c>
+      <c r="R86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="S86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="T86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="U86">
+        <v>2.220285755022783e-14</v>
+      </c>
+      <c r="V86">
+        <v>16</v>
+      </c>
+      <c r="W86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="C87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="D87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="E87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="F87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="G87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="H87">
+        <v>9.7985711655351691e-05</v>
+      </c>
+      <c r="I87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="J87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="K87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="L87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="M87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="N87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="O87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="P87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="Q87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="R87">
+        <v>0.99990201428794501</v>
+      </c>
+      <c r="S87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="T87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="U87">
+        <v>2.2204351738013205e-14</v>
+      </c>
+      <c r="V87">
+        <v>17</v>
+      </c>
+      <c r="W87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="C88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="D88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="E88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="F88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="G88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="H88">
+        <v>0.0017652649875926135</v>
+      </c>
+      <c r="I88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="J88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="K88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="L88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="M88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="N88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="O88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="P88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="Q88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="R88">
+        <v>0.99823473501200766</v>
+      </c>
+      <c r="S88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="T88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="U88">
+        <v>2.2202510876691648e-14</v>
+      </c>
+      <c r="V88">
+        <v>17</v>
+      </c>
+      <c r="W88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="C89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="D89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="E89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="F89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="G89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="H89">
+        <v>4.2757873156618925e-05</v>
+      </c>
+      <c r="I89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="J89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="K89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="L89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="M89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="N89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="O89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="P89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="Q89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="R89">
+        <v>0.99995724212644366</v>
+      </c>
+      <c r="S89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="T89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="U89">
+        <v>2.2204413027725965e-14</v>
+      </c>
+      <c r="V89">
+        <v>17</v>
+      </c>
+      <c r="W89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="C90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="D90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="E90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="F90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="G90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="H90">
+        <v>4.363812297197887e-05</v>
+      </c>
+      <c r="I90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="J90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="K90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="L90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="M90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="N90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="O90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="P90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="Q90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="R90">
+        <v>0.99995636187662829</v>
+      </c>
+      <c r="S90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="T90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="U90">
+        <v>2.2204412050701896e-14</v>
+      </c>
+      <c r="V90">
+        <v>17</v>
+      </c>
+      <c r="W90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="C91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="D91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="E91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="F91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="G91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="H91">
+        <v>0.015459295600348413</v>
+      </c>
+      <c r="I91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="J91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="K91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="L91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="M91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="N91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="O91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="P91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="Q91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="R91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="S91">
+        <v>0.98454070439925201</v>
+      </c>
+      <c r="T91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="U91">
+        <v>2.2201151213729929e-14</v>
+      </c>
+      <c r="V91">
+        <v>18</v>
+      </c>
+      <c r="W91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="C92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="D92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="E92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="F92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="G92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="H92">
+        <v>0.011204331636713484</v>
+      </c>
+      <c r="I92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="J92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="K92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="L92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="M92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="N92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="O92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="P92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="Q92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="R92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="S92">
+        <v>0.9887956683628869</v>
+      </c>
+      <c r="T92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="U92">
+        <v>2.2201125989194002e-14</v>
+      </c>
+      <c r="V92">
+        <v>18</v>
+      </c>
+      <c r="W92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="C93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="D93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="E93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="F93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="G93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="H93">
+        <v>0.03594543705359228</v>
+      </c>
+      <c r="I93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="J93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="K93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="L93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="M93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="N93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="O93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="P93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="Q93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="R93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="S93">
+        <v>0.964054562946008</v>
+      </c>
+      <c r="T93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="U93">
+        <v>2.2201294430254497e-14</v>
+      </c>
+      <c r="V93">
+        <v>18</v>
+      </c>
+      <c r="W93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="C94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="D94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="E94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="F94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="G94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="H94">
+        <v>0.02180919283235723</v>
+      </c>
+      <c r="I94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="J94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="K94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="L94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="M94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="N94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="O94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="P94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="Q94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="R94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="S94">
+        <v>0.97819080716724316</v>
+      </c>
+      <c r="T94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="U94">
+        <v>2.2201196150392342e-14</v>
+      </c>
+      <c r="V94">
+        <v>18</v>
+      </c>
+      <c r="W94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="C95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="D95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="E95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="F95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="G95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="H95">
+        <v>0.0011309915716858983</v>
+      </c>
+      <c r="I95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="J95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="K95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="L95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="M95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="N95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="O95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="P95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="Q95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="R95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="S95">
+        <v>0.9988690084279146</v>
+      </c>
+      <c r="T95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="U95">
+        <v>2.2203209036082948e-14</v>
+      </c>
+      <c r="V95">
+        <v>18</v>
+      </c>
+      <c r="W95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="C96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="D96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="E96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="F96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="G96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="H96">
+        <v>5.8360785748411589e-11</v>
+      </c>
+      <c r="I96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="J96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="K96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="L96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="M96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="N96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="O96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="P96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="Q96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="R96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="S96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="T96">
+        <v>0.99999999994123945</v>
+      </c>
+      <c r="U96">
+        <v>2.2204460492437444e-14</v>
+      </c>
+      <c r="V96">
+        <v>19</v>
+      </c>
+      <c r="W96">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="C97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="D97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="E97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="F97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="G97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="H97">
+        <v>4.1311064192358689e-10</v>
+      </c>
+      <c r="I97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="J97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="K97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="L97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="M97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="N97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="O97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="P97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="Q97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="R97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="S97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="T97">
+        <v>0.99999999958648966</v>
+      </c>
+      <c r="U97">
+        <v>2.2204460492043594e-14</v>
+      </c>
+      <c r="V97">
+        <v>19</v>
+      </c>
+      <c r="W97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="C98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="D98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="E98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="F98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="G98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="H98">
+        <v>5.942164883061586e-10</v>
+      </c>
+      <c r="I98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="J98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="K98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="L98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="M98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="N98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="O98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="P98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="Q98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="R98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="S98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="T98">
+        <v>0.99999999940538375</v>
+      </c>
+      <c r="U98">
+        <v>2.2204460491842523e-14</v>
+      </c>
+      <c r="V98">
+        <v>19</v>
+      </c>
+      <c r="W98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="C99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="D99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="E99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="F99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="G99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="H99">
+        <v>0.00050814712405505705</v>
+      </c>
+      <c r="I99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="J99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="K99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="L99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="M99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="N99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="O99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="P99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="Q99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="R99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="S99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="T99">
+        <v>0.99949185287554532</v>
+      </c>
+      <c r="U99">
+        <v>2.2203897183073893e-14</v>
+      </c>
+      <c r="V99">
+        <v>19</v>
+      </c>
+      <c r="W99">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="C100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="D100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="E100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="F100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="G100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="H100">
+        <v>0.00012039787006858115</v>
+      </c>
+      <c r="I100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="J100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="K100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="L100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="M100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="N100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="O100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="P100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="Q100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="R100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="S100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="T100">
+        <v>0.99987960212953175</v>
+      </c>
+      <c r="U100">
+        <v>2.2204326871578733e-14</v>
+      </c>
+      <c r="V100">
+        <v>19</v>
+      </c>
+      <c r="W100">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="C101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="D101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="E101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="F101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="G101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="H101">
+        <v>6.4360991061599066e-05</v>
+      </c>
+      <c r="I101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="J101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="K101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="L101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="M101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="N101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="O101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="P101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="Q101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="R101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="S101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="T101">
+        <v>0.99993563900853866</v>
+      </c>
+      <c r="U101">
+        <v>2.2204389051040277e-14</v>
+      </c>
+      <c r="V101">
+        <v>19</v>
+      </c>
+      <c r="W101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B102">
+        <v>0.04751050082381391</v>
+      </c>
+      <c r="C102">
+        <v>0.04751050082381391</v>
+      </c>
+      <c r="D102">
+        <v>0.04751050082381391</v>
+      </c>
+      <c r="E102">
+        <v>0.04751050082381391</v>
+      </c>
+      <c r="F102">
+        <v>0.04751050082381391</v>
+      </c>
+      <c r="G102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="H102">
+        <v>0.047941123746547958</v>
+      </c>
+      <c r="I102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="J102">
+        <v>0.047510500823813896</v>
+      </c>
+      <c r="K102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="L102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="M102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="N102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="O102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="P102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="Q102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="R102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="S102">
+        <v>0.047510500823813938</v>
+      </c>
+      <c r="T102">
+        <v>0.096869861424801196</v>
+      </c>
+      <c r="U102">
+        <v>0.047510500823813875</v>
+      </c>
+      <c r="V102">
+        <v>19</v>
+      </c>
+      <c r="W102">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="C103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="D103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="E103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="F103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="G103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="H103">
+        <v>0.00024214194369111304</v>
+      </c>
+      <c r="I103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="J103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="K103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="L103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="M103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="N103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="O103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="P103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="Q103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="R103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="S103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="T103">
+        <v>0.99975785805590922</v>
+      </c>
+      <c r="U103">
+        <v>2.2204191853326191e-14</v>
+      </c>
+      <c r="V103">
+        <v>19</v>
+      </c>
+      <c r="W103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="C104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="D104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="E104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="F104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="G104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="H104">
+        <v>2.9204223492515683e-09</v>
+      </c>
+      <c r="I104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="J104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="K104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="L104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="M104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="N104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="O104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="P104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="Q104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="R104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="S104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="T104">
+        <v>2.2204460489259912e-14</v>
+      </c>
+      <c r="U104">
+        <v>0.99999999707917786</v>
+      </c>
+      <c r="V104">
+        <v>20</v>
+      </c>
+      <c r="W104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>20</v>
+      </c>
+      <c r="W105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>20</v>
+      </c>
+      <c r="W106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>20</v>
+      </c>
+      <c r="W107">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>